--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Air_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Air_mass_flows.xlsx
@@ -448,7 +448,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3.099664672908562E-20</v>
+        <v>2.281836786942524E-32</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.527612531196173E-16</v>
+        <v>1.124561150224988E-28</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>6.895377131435781E-21</v>
+        <v>1.426326397832536E-33</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.398259368301532E-17</v>
+        <v>7.029386429920948E-30</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.603067487816991E-21</v>
+        <v>5.64354322375065E-35</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.775705318462724E-17</v>
+        <v>2.781316128902134E-31</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>5.981101518357973E-22</v>
+        <v>2.790383723198387E-35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.947675504920539E-18</v>
+        <v>1.375189122765292E-31</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.000202867925411704</v>
+        <v>4.08504249024211E-32</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9997971320745881</v>
+        <v>2.013237803787028E-28</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.457284667803715E-25</v>
+        <v>2.073021836633508E-26</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>7.181958550271476E-21</v>
+        <v>1.021650555546423E-21</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>8.319168285749382E-26</v>
+        <v>8.385170434489342E-27</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.099948563312041E-21</v>
+        <v>4.132476504280064E-22</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4.432423348557975E-26</v>
+        <v>5.58942438663284E-27</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.184438049058414E-21</v>
+        <v>2.754644658766187E-22</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.672926567456472E-27</v>
+        <v>2.790890109382525E-27</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.274291804009457E-22</v>
+        <v>1.375438685851026E-22</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>2.881327198714935E-24</v>
+        <v>4.0808458092797E-24</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.420008936354756E-19</v>
+        <v>2.011169547022468E-19</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>4.724492520666517E-30</v>
+        <v>1.162490218936416E-33</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.164189475266777E-25</v>
+        <v>2.864559255975748E-29</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>4.255415159208522E-34</v>
+        <v>8.39950425467993E-35</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.048601414770013E-29</v>
+        <v>2.069770331518559E-30</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>9.298260092345542E-37</v>
+        <v>1.239907778455371E-36</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.291237945758165E-32</v>
+        <v>3.055328333497944E-32</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>4.002335269524986E-31</v>
+        <v>5.333425360521629E-31</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>9.862385381896343E-27</v>
+        <v>1.314240131544166E-26</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>8.451171161880688E-31</v>
+        <v>1.177313699851987E-30</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.082501872381326E-26</v>
+        <v>2.901086651020266E-26</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>5.887256169371972E-27</v>
+        <v>7.694113119440707E-27</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.802851113088714E-22</v>
+        <v>7.583803319389076E-22</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>7.261170873662101E-28</v>
+        <v>8.660562660247281E-28</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>7.157068127214229E-23</v>
+        <v>8.536396961022944E-23</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>8.301772503740884E-29</v>
+        <v>1.02390015443853E-28</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8.182750746360178E-24</v>
+        <v>1.009220591043034E-23</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1.000614309838103E-22</v>
+        <v>1.33339697367231E-22</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.862685934789103E-18</v>
+        <v>1.314280182526674E-17</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>2.112857095593681E-22</v>
+        <v>2.943373831655262E-22</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.082565255568127E-17</v>
+        <v>2.901174948716211E-17</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3.442188388206546E-23</v>
+        <v>1.121959070153541E-28</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4.082217563784844E-27</v>
+        <v>7.024824237833165E-30</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6.31161860295496E-31</v>
+        <v>2.754165464880795E-31</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1.668394095292838E-31</v>
+        <v>1.361640749700588E-31</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1.364634410049921E-28</v>
+        <v>2.002299982932536E-28</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1.556555033150118E-21</v>
+        <v>1.013230168033768E-21</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1.126958534859766E-21</v>
+        <v>4.090995177334069E-22</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.293168416541185E-22</v>
+        <v>2.726995009649529E-22</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.66839304463765E-22</v>
+        <v>1.361639184195137E-22</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>1.362991153965176E-19</v>
+        <v>1.999864030376811E-19</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>6.791675282712857E-26</v>
+        <v>2.854488136405577E-29</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>4.115184086090163E-30</v>
+        <v>2.062154539978769E-30</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>2.197661624183378E-32</v>
+        <v>3.025563299398062E-32</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>9.615094766768125E-27</v>
+        <v>1.281403866288479E-26</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>2.028990407490421E-26</v>
+        <v>2.829889203408771E-26</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>5.358435587236688E-22</v>
+        <v>7.398192492396857E-22</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>6.209142446497338E-23</v>
+        <v>8.328021114717624E-23</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>7.285485238236992E-24</v>
+        <v>9.845686485733951E-24</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>9.615095140138787E-18</v>
+        <v>1.281403916001046E-17</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>2.028990407535408E-17</v>
+        <v>2.829889203471516E-17</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>2.056552906243587E-22</v>
+        <v>2.830263750140064E-31</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>8.724560471310439E-26</v>
+        <v>5.988518485603905E-33</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>1.607770667790013E-30</v>
+        <v>2.771501834367737E-33</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>2.605985455422115E-31</v>
+        <v>1.382741143701788E-33</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>5.705253356980182E-30</v>
+        <v>1.134632510351495E-30</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>5.625549245588127E-21</v>
+        <v>8.441117731011226E-24</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="C28">
-        <v>2.97307322013513E-21</v>
+        <v>4.156517865031691E-24</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>1.55516553163778E-21</v>
+        <v>2.770554336050993E-24</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>2.605985488637478E-22</v>
+        <v>1.382741055697562E-24</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>5.704659566156756E-21</v>
+        <v>1.13463251037489E-21</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>4.850691919206972E-26</v>
+        <v>1.018736859138146E-31</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>6.371255603124716E-30</v>
+        <v>7.699786580718623E-33</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>9.36693041005904E-34</v>
+        <v>2.988902477475663E-34</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>2.476908486551738E-28</v>
+        <v>3.28895995092928E-28</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>5.35959766025243E-28</v>
+        <v>7.131517898148053E-28</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>4.444743984075063E-23</v>
+        <v>1.856877681147727E-23</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>9.479982924119733E-24</v>
+        <v>2.084624519129565E-24</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>8.973485257542626E-25</v>
+        <v>2.466218145815036E-25</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>2.476908560812982E-19</v>
+        <v>3.288960049536375E-19</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>5.359597660367436E-19</v>
+        <v>7.131517898301081E-19</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>5.803535377488149E-17</v>
+        <v>2.092439414126954E-44</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1.291030873241163E-17</v>
+        <v>3.165601956244065E-45</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>6.746072461264804E-18</v>
+        <v>1.3779177137676E-45</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1.119849805130058E-18</v>
+        <v>2.287010815077652E-46</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>3.128876410510405E-18</v>
+        <v>6.300450432325373E-46</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>3.373954704621554E-36</v>
+        <v>3.803747024536139E-36</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>9.962693748424194E-37</v>
+        <v>8.367669659938103E-37</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>6.038781219145933E-37</v>
+        <v>5.561862409038825E-37</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>2.241609756143735E-37</v>
+        <v>2.692991253122674E-37</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>1.138222932442179E-35</v>
+        <v>1.612073868581929E-35</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>1.385900781501981E-41</v>
+        <v>2.589104289052064E-42</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>4.472732618241257E-43</v>
+        <v>6.140349397217622E-43</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>2.8533344602859E-43</v>
+        <v>3.9111667192338E-43</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4.270543384789493E-43</v>
+        <v>5.714174591667839E-43</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>1.272228805796028E-43</v>
+        <v>1.772313415170117E-43</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>2.360009365270041E-34</v>
+        <v>3.28116524479331E-34</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>5.185153494543426E-35</v>
+        <v>7.20164343929254E-35</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>3.568886066576511E-35</v>
+        <v>4.950251933283355E-35</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1.064635643855462E-33</v>
+        <v>1.419666727016543E-33</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>1.930707088651458E-33</v>
+        <v>2.689624742335561E-33</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>9.169998959447462E-17</v>
+        <v>3.306203202392766E-44</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>2.039920668039417E-17</v>
+        <v>5.001876400613398E-45</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>1.065927463630453E-17</v>
+        <v>2.177208060187951E-45</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>1.769442396717957E-18</v>
+        <v>3.613639864393157E-46</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>4.94384742443637E-18</v>
+        <v>9.95516011370984E-46</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>5.331088572426939E-36</v>
+        <v>6.010191028092687E-36</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>1.574176521103324E-36</v>
+        <v>1.322151362637907E-36</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>9.54170413274304E-37</v>
+        <v>8.788138468374511E-37</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>3.541902959885475E-37</v>
+        <v>4.255117851909135E-37</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>1.798473245567002E-35</v>
+        <v>2.547191450713084E-35</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>2.189821875398148E-41</v>
+        <v>4.090969054587602E-42</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>7.067235880779779E-43</v>
+        <v>9.702189083148129E-43</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>4.508471531554945E-43</v>
+        <v>6.179921791244863E-43</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>6.747762501233218E-43</v>
+        <v>9.028802557653097E-43</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>2.010212063250663E-43</v>
+        <v>2.800381339272355E-43</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>3.728982769323481E-34</v>
+        <v>5.184474621666297E-34</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>8.192911571449401E-35</v>
+        <v>1.1379109206569E-34</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>5.63909399843406E-35</v>
+        <v>7.821750385686154E-35</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>1.682200092070552E-33</v>
+        <v>2.2431744725813E-33</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>3.050654616943939E-33</v>
+        <v>4.249798525256189E-33</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>3.056666319815822E-18</v>
+        <v>1.102067734130922E-45</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>6.799735560131391E-19</v>
+        <v>1.6672921335378E-46</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>3.553091545434844E-19</v>
+        <v>7.257360200626503E-47</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>5.89814132239319E-20</v>
+        <v>1.204546621464386E-47</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1.64794914147879E-19</v>
+        <v>3.318386704569947E-47</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1.777029524142313E-37</v>
+        <v>2.00339700936423E-37</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>5.247255070344414E-38</v>
+        <v>4.407171208793022E-38</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>3.18056804424768E-38</v>
+        <v>2.929379489458171E-38</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>1.180634319961825E-38</v>
+        <v>1.418372617303046E-38</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>5.994910818556673E-37</v>
+        <v>8.490638169043614E-37</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>7.299406251327161E-43</v>
+        <v>1.363656351529201E-43</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>2.35574529359326E-44</v>
+        <v>3.234063027716043E-44</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>1.502823843851649E-44</v>
+        <v>2.059973930414955E-44</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>2.24925416707774E-44</v>
+        <v>3.009600852551033E-44</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>6.700706877502209E-45</v>
+        <v>9.334604464241184E-45</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>1.24299425644116E-35</v>
+        <v>1.728158207222099E-35</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>2.730970523816467E-36</v>
+        <v>3.793036402189665E-36</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>1.87969799947802E-36</v>
+        <v>2.607250128562052E-36</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>5.607333640235174E-35</v>
+        <v>7.477248241937667E-35</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>1.016884872314647E-34</v>
+        <v>1.41659950841873E-34</v>
       </c>
     </row>
   </sheetData>
